--- a/Files/Excel/Foton.xlsx
+++ b/Files/Excel/Foton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F8142-82EC-481E-84E9-EBCC1E397ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF064E5-2815-42BC-8365-F15CB1C18523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Foton Citytruck 10-16</t>
-  </si>
-  <si>
-    <t>Foton Toano</t>
-  </si>
-  <si>
-    <t>Foton View Traveller</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Citytruck</t>
+  </si>
+  <si>
+    <t>Toano</t>
+  </si>
+  <si>
+    <t>View Traveller</t>
+  </si>
+  <si>
+    <t>Foton</t>
   </si>
 </sst>
 </file>
@@ -397,47 +403,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
